--- a/portfolio-optimization/data/raw/equities/other/acs_esg_etf.xlsx
+++ b/portfolio-optimization/data/raw/equities/other/acs_esg_etf.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3204D76-2516-4A98-AC26-A47448F4EAC3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nachogutierrezdelaroza/Documents/2_PP/WM/portfolio-optimization/data/raw/equities/other/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7380840E-BAF5-FA46-9E96-FC3E1CC6487F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,12 +423,12 @@
   <dimension ref="A1:C1045"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,12 +439,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45813</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45812</v>
       </c>
@@ -450,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45811</v>
       </c>
@@ -458,7 +463,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>45810</v>
       </c>
@@ -466,7 +471,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45807</v>
       </c>
@@ -474,7 +479,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45806</v>
       </c>
@@ -482,7 +487,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45805</v>
       </c>
@@ -490,7 +495,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45804</v>
       </c>
@@ -498,7 +503,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45800</v>
       </c>
@@ -506,7 +511,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45799</v>
       </c>
@@ -514,7 +519,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45798</v>
       </c>
@@ -522,7 +527,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45797</v>
       </c>
@@ -530,7 +535,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45796</v>
       </c>
@@ -538,7 +543,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45793</v>
       </c>
@@ -546,7 +551,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>45792</v>
       </c>
@@ -554,7 +559,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45791</v>
       </c>
@@ -562,7 +567,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45790</v>
       </c>
@@ -570,7 +575,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45789</v>
       </c>
@@ -578,7 +583,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45786</v>
       </c>
@@ -586,7 +591,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45785</v>
       </c>
@@ -594,7 +599,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45784</v>
       </c>
@@ -602,7 +607,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45783</v>
       </c>
@@ -610,7 +615,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45779</v>
       </c>
@@ -618,7 +623,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45778</v>
       </c>
@@ -626,7 +631,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45777</v>
       </c>
@@ -634,7 +639,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45776</v>
       </c>
@@ -642,7 +647,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45775</v>
       </c>
@@ -650,7 +655,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45772</v>
       </c>
@@ -658,7 +663,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45771</v>
       </c>
@@ -666,7 +671,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45770</v>
       </c>
@@ -674,7 +679,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45769</v>
       </c>
@@ -682,7 +687,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45764</v>
       </c>
@@ -690,7 +695,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45763</v>
       </c>
@@ -698,7 +703,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45762</v>
       </c>
@@ -706,7 +711,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45761</v>
       </c>
@@ -714,7 +719,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45758</v>
       </c>
@@ -722,7 +727,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45757</v>
       </c>
@@ -730,7 +735,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45756</v>
       </c>
@@ -738,7 +743,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45755</v>
       </c>
@@ -746,7 +751,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45754</v>
       </c>
@@ -754,7 +759,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45751</v>
       </c>
@@ -762,7 +767,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45750</v>
       </c>
@@ -770,7 +775,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45749</v>
       </c>
@@ -778,7 +783,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45748</v>
       </c>
@@ -786,7 +791,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45747</v>
       </c>
@@ -794,7 +799,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45744</v>
       </c>
@@ -802,7 +807,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>45743</v>
       </c>
@@ -810,7 +815,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>45742</v>
       </c>
@@ -818,7 +823,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>45741</v>
       </c>
@@ -826,7 +831,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>45740</v>
       </c>
@@ -834,7 +839,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>45737</v>
       </c>
@@ -842,7 +847,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>45736</v>
       </c>
@@ -850,7 +855,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>45735</v>
       </c>
@@ -858,7 +863,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>45734</v>
       </c>
@@ -866,7 +871,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>45733</v>
       </c>
@@ -874,7 +879,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>45730</v>
       </c>
@@ -882,7 +887,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>45729</v>
       </c>
@@ -890,7 +895,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>45728</v>
       </c>
@@ -898,7 +903,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>45727</v>
       </c>
@@ -906,7 +911,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>45726</v>
       </c>
@@ -914,7 +919,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>45723</v>
       </c>
@@ -922,7 +927,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>45722</v>
       </c>
@@ -930,7 +935,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>45721</v>
       </c>
@@ -938,7 +943,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>45720</v>
       </c>
@@ -946,7 +951,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>45719</v>
       </c>
@@ -954,7 +959,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>45716</v>
       </c>
@@ -962,7 +967,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>45715</v>
       </c>
@@ -970,7 +975,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>45714</v>
       </c>
@@ -978,7 +983,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>45713</v>
       </c>
@@ -986,7 +991,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>45712</v>
       </c>
@@ -994,7 +999,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>45709</v>
       </c>
@@ -1002,7 +1007,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>45708</v>
       </c>
@@ -1010,7 +1015,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>45707</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>45706</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>45705</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>45702</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>45701</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>45700</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>45699</v>
       </c>
@@ -1066,7 +1071,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>45698</v>
       </c>
@@ -1074,7 +1079,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>45695</v>
       </c>
@@ -1082,7 +1087,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>45694</v>
       </c>
@@ -1090,7 +1095,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45693</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>45692</v>
       </c>
@@ -1106,7 +1111,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>45691</v>
       </c>
@@ -1114,7 +1119,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>45688</v>
       </c>
@@ -1122,7 +1127,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>45687</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>45686</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>45685</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>45684</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>45681</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>45680</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>45679</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>45678</v>
       </c>
@@ -1186,7 +1191,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>45677</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>45674</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>45673</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>45672</v>
       </c>
@@ -1218,7 +1223,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>45671</v>
       </c>
@@ -1226,7 +1231,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>45670</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>45667</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>45666</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>45665</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>45664</v>
       </c>
@@ -1266,7 +1271,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>45663</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>45660</v>
       </c>
@@ -1282,7 +1287,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>45659</v>
       </c>
@@ -1290,7 +1295,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>45657</v>
       </c>
@@ -1298,7 +1303,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>45656</v>
       </c>
@@ -1306,7 +1311,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>45653</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>45650</v>
       </c>
@@ -1322,7 +1327,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>45649</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>45646</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>45645</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>45644</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>45643</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>45642</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>45639</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>45638</v>
       </c>
@@ -1386,7 +1391,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>45637</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>45636</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>45635</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>45632</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>45631</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>45630</v>
       </c>
@@ -1434,7 +1439,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>45629</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>1.51</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>45628</v>
       </c>
@@ -1450,7 +1455,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>45625</v>
       </c>
@@ -1458,7 +1463,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>45624</v>
       </c>
@@ -1466,7 +1471,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>45623</v>
       </c>
@@ -1474,7 +1479,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>45622</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>45621</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>45618</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>45617</v>
       </c>
@@ -1506,7 +1511,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>45616</v>
       </c>
@@ -1514,7 +1519,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>45615</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>45614</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>45611</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>45610</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>45609</v>
       </c>
@@ -1554,7 +1559,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>45608</v>
       </c>
@@ -1562,7 +1567,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>45607</v>
       </c>
@@ -1570,7 +1575,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>45604</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45603</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>45602</v>
       </c>
@@ -1594,7 +1599,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>45601</v>
       </c>
@@ -1602,7 +1607,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>45600</v>
       </c>
@@ -1610,7 +1615,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>45597</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>45596</v>
       </c>
@@ -1626,7 +1631,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>45595</v>
       </c>
@@ -1634,7 +1639,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>45594</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>45593</v>
       </c>
@@ -1650,7 +1655,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>45590</v>
       </c>
@@ -1658,7 +1663,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>45589</v>
       </c>
@@ -1666,7 +1671,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>45588</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>45587</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>45586</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>45583</v>
       </c>
@@ -1698,7 +1703,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>45582</v>
       </c>
@@ -1706,7 +1711,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>45581</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>45580</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>45579</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>45576</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>45575</v>
       </c>
@@ -1746,7 +1751,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>45574</v>
       </c>
@@ -1754,7 +1759,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>45573</v>
       </c>
@@ -1762,7 +1767,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>45572</v>
       </c>
@@ -1770,7 +1775,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>45569</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>45568</v>
       </c>
@@ -1786,7 +1791,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>45567</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>45566</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>45565</v>
       </c>
@@ -1810,7 +1815,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>45562</v>
       </c>
@@ -1818,7 +1823,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>45561</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>45560</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>45559</v>
       </c>
@@ -1842,7 +1847,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>45558</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>45555</v>
       </c>
@@ -1858,7 +1863,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>45554</v>
       </c>
@@ -1866,7 +1871,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>45553</v>
       </c>
@@ -1874,7 +1879,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>45552</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>45551</v>
       </c>
@@ -1890,7 +1895,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>45548</v>
       </c>
@@ -1898,7 +1903,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>45547</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>45546</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>45545</v>
       </c>
@@ -1922,7 +1927,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>45544</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>45541</v>
       </c>
@@ -1938,7 +1943,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>45540</v>
       </c>
@@ -1946,7 +1951,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>45539</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>45538</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>45537</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>45534</v>
       </c>
@@ -1978,7 +1983,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>45533</v>
       </c>
@@ -1986,7 +1991,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>45532</v>
       </c>
@@ -1994,7 +1999,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>45531</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>45527</v>
       </c>
@@ -2010,7 +2015,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>45526</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>45525</v>
       </c>
@@ -2026,7 +2031,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>45524</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>45523</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>45520</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>45519</v>
       </c>
@@ -2058,7 +2063,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>45518</v>
       </c>
@@ -2066,7 +2071,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>45517</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>45516</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>45513</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>45512</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>45511</v>
       </c>
@@ -2106,7 +2111,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>45510</v>
       </c>
@@ -2114,7 +2119,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>45509</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45506</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45505</v>
       </c>
@@ -2138,7 +2143,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>45504</v>
       </c>
@@ -2146,7 +2151,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>45503</v>
       </c>
@@ -2154,7 +2159,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>45502</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>45499</v>
       </c>
@@ -2170,7 +2175,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>45498</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>45497</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>45496</v>
       </c>
@@ -2194,7 +2199,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>45495</v>
       </c>
@@ -2202,7 +2207,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45492</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>45491</v>
       </c>
@@ -2218,7 +2223,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>45490</v>
       </c>
@@ -2226,7 +2231,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>45489</v>
       </c>
@@ -2234,7 +2239,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>45488</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>45485</v>
       </c>
@@ -2250,7 +2255,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>45484</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>45483</v>
       </c>
@@ -2266,7 +2271,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>45482</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>45481</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>45478</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>45477</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>45476</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>45475</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>45474</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>45471</v>
       </c>
@@ -2330,7 +2335,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>45470</v>
       </c>
@@ -2338,7 +2343,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>45469</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>45468</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>45467</v>
       </c>
@@ -2362,7 +2367,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>45464</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>45463</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>45462</v>
       </c>
@@ -2386,7 +2391,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>45461</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>45460</v>
       </c>
@@ -2402,7 +2407,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>45457</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>45456</v>
       </c>
@@ -2418,7 +2423,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>45455</v>
       </c>
@@ -2426,7 +2431,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>45454</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>45453</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>45450</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>45449</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>45448</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>45447</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>45446</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>45443</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>45442</v>
       </c>
@@ -2498,7 +2503,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>45441</v>
       </c>
@@ -2506,7 +2511,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>45440</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>45436</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>45435</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>45434</v>
       </c>
@@ -2538,7 +2543,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>45433</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>45432</v>
       </c>
@@ -2554,7 +2559,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>45429</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>45428</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>45427</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>45426</v>
       </c>
@@ -2586,7 +2591,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>45425</v>
       </c>
@@ -2594,7 +2599,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>45422</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>45421</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>45420</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>45419</v>
       </c>
@@ -2626,7 +2631,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>45415</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>45414</v>
       </c>
@@ -2642,7 +2647,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>45413</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>45412</v>
       </c>
@@ -2658,7 +2663,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>45411</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>45408</v>
       </c>
@@ -2674,7 +2679,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>45407</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>45406</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>45405</v>
       </c>
@@ -2698,7 +2703,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>45404</v>
       </c>
@@ -2706,7 +2711,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>45401</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>45400</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>45399</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>45398</v>
       </c>
@@ -2738,7 +2743,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>45397</v>
       </c>
@@ -2746,7 +2751,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>45394</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>45393</v>
       </c>
@@ -2762,7 +2767,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>45392</v>
       </c>
@@ -2770,7 +2775,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>45391</v>
       </c>
@@ -2778,7 +2783,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>45390</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>45387</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>45386</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>45385</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>45384</v>
       </c>
@@ -2818,7 +2823,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>45379</v>
       </c>
@@ -2826,7 +2831,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>45378</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>45377</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>45376</v>
       </c>
@@ -2850,7 +2855,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>45373</v>
       </c>
@@ -2858,7 +2863,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>45372</v>
       </c>
@@ -2866,7 +2871,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>45371</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>45370</v>
       </c>
@@ -2882,7 +2887,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>45369</v>
       </c>
@@ -2890,7 +2895,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>45366</v>
       </c>
@@ -2898,7 +2903,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>45365</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>45364</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>45363</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>45362</v>
       </c>
@@ -2930,7 +2935,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>45359</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>45358</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>45357</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>45356</v>
       </c>
@@ -2962,7 +2967,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>45355</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>45352</v>
       </c>
@@ -2978,7 +2983,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>45351</v>
       </c>
@@ -2986,7 +2991,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>45350</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>45349</v>
       </c>
@@ -3002,7 +3007,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>45348</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>45345</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>45344</v>
       </c>
@@ -3026,7 +3031,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>45343</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>45342</v>
       </c>
@@ -3042,7 +3047,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>45341</v>
       </c>
@@ -3050,7 +3055,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>45338</v>
       </c>
@@ -3058,7 +3063,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>45337</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>45336</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>45335</v>
       </c>
@@ -3082,7 +3087,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>45334</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>45331</v>
       </c>
@@ -3098,7 +3103,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>45330</v>
       </c>
@@ -3106,7 +3111,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>45329</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>45328</v>
       </c>
@@ -3122,7 +3127,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>45327</v>
       </c>
@@ -3130,7 +3135,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>45324</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>45323</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>45322</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>45321</v>
       </c>
@@ -3162,7 +3167,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>45320</v>
       </c>
@@ -3170,7 +3175,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>45317</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>45316</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>45315</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>45314</v>
       </c>
@@ -3202,7 +3207,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>45313</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>45310</v>
       </c>
@@ -3218,7 +3223,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>45309</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>45308</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>45307</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>45306</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>45303</v>
       </c>
@@ -3258,7 +3263,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>45302</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>45301</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>45300</v>
       </c>
@@ -3282,7 +3287,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>45299</v>
       </c>
@@ -3290,7 +3295,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>45296</v>
       </c>
@@ -3298,7 +3303,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>45295</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>45294</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>45293</v>
       </c>
@@ -3322,7 +3327,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>45289</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>45288</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>45287</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>45282</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>45281</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>45280</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>45279</v>
       </c>
@@ -3378,7 +3383,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>45278</v>
       </c>
@@ -3386,7 +3391,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>45275</v>
       </c>
@@ -3394,7 +3399,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>45274</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>45273</v>
       </c>
@@ -3410,7 +3415,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>45272</v>
       </c>
@@ -3418,7 +3423,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>45271</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>45268</v>
       </c>
@@ -3434,7 +3439,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>45267</v>
       </c>
@@ -3442,7 +3447,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>45266</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>45265</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>45264</v>
       </c>
@@ -3466,7 +3471,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>45261</v>
       </c>
@@ -3474,7 +3479,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>45260</v>
       </c>
@@ -3482,7 +3487,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>45259</v>
       </c>
@@ -3490,7 +3495,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>45258</v>
       </c>
@@ -3498,7 +3503,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>45257</v>
       </c>
@@ -3506,7 +3511,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>45254</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>45253</v>
       </c>
@@ -3522,7 +3527,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>45252</v>
       </c>
@@ -3530,7 +3535,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>45251</v>
       </c>
@@ -3538,7 +3543,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>45250</v>
       </c>
@@ -3546,7 +3551,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>45247</v>
       </c>
@@ -3554,7 +3559,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>45246</v>
       </c>
@@ -3562,7 +3567,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>45245</v>
       </c>
@@ -3570,7 +3575,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>45244</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>45243</v>
       </c>
@@ -3586,7 +3591,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>45240</v>
       </c>
@@ -3594,7 +3599,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>45239</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>45238</v>
       </c>
@@ -3610,7 +3615,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>45237</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>45236</v>
       </c>
@@ -3626,7 +3631,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>45233</v>
       </c>
@@ -3634,7 +3639,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>45232</v>
       </c>
@@ -3642,7 +3647,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>45231</v>
       </c>
@@ -3650,7 +3655,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>45230</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>45229</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>45226</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>45225</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>45224</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>45223</v>
       </c>
@@ -3698,7 +3703,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>45222</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>45219</v>
       </c>
@@ -3714,7 +3719,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>45218</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>45217</v>
       </c>
@@ -3730,7 +3735,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>45216</v>
       </c>
@@ -3738,7 +3743,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>45215</v>
       </c>
@@ -3746,7 +3751,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>45212</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>45211</v>
       </c>
@@ -3762,7 +3767,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>45210</v>
       </c>
@@ -3770,7 +3775,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>45209</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>45208</v>
       </c>
@@ -3786,7 +3791,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>45205</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>45204</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>45203</v>
       </c>
@@ -3810,7 +3815,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>45202</v>
       </c>
@@ -3818,7 +3823,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>45201</v>
       </c>
@@ -3826,7 +3831,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>45198</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>45197</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>45196</v>
       </c>
@@ -3850,7 +3855,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>45195</v>
       </c>
@@ -3858,7 +3863,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>45194</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>45191</v>
       </c>
@@ -3874,7 +3879,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>45190</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>45189</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>45188</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>45187</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>45184</v>
       </c>
@@ -3914,7 +3919,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>45183</v>
       </c>
@@ -3922,7 +3927,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>45182</v>
       </c>
@@ -3930,7 +3935,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>45181</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>45180</v>
       </c>
@@ -3946,7 +3951,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>45177</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="442" spans="1:2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>45176</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>45175</v>
       </c>
@@ -3970,7 +3975,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>45174</v>
       </c>
@@ -3978,7 +3983,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>45173</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>45170</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>45169</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>45168</v>
       </c>
@@ -4010,7 +4015,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>45167</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>45163</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>45162</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>45161</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>45160</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>45159</v>
       </c>
@@ -4058,7 +4063,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>45156</v>
       </c>
@@ -4066,7 +4071,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>45155</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>45154</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>45153</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>45152</v>
       </c>
@@ -4098,7 +4103,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>45149</v>
       </c>
@@ -4106,7 +4111,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="461" spans="1:2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>45148</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>45147</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="463" spans="1:2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>45146</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>45145</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>45142</v>
       </c>
@@ -4146,7 +4151,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>45141</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>45140</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>45139</v>
       </c>
@@ -4170,7 +4175,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="469" spans="1:2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>45138</v>
       </c>
@@ -4178,7 +4183,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>45135</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>45134</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>45133</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>45132</v>
       </c>
@@ -4210,7 +4215,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>45131</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>45128</v>
       </c>
@@ -4226,7 +4231,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>45127</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>45126</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>45125</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>45124</v>
       </c>
@@ -4258,7 +4263,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>45121</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>45120</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>45119</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>45118</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>45117</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>45114</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>45113</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>45112</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>45111</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>45110</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>45107</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>45106</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>45105</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>45104</v>
       </c>
@@ -4370,7 +4375,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>45103</v>
       </c>
@@ -4378,7 +4383,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>45100</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="496" spans="1:2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>45099</v>
       </c>
@@ -4394,7 +4399,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>45098</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>45097</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>45096</v>
       </c>
@@ -4418,7 +4423,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="500" spans="1:2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>45093</v>
       </c>
@@ -4426,7 +4431,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>45092</v>
       </c>
@@ -4434,7 +4439,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="502" spans="1:2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>45091</v>
       </c>
@@ -4442,7 +4447,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>45090</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>45089</v>
       </c>
@@ -4458,7 +4463,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>45086</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>45085</v>
       </c>
@@ -4474,7 +4479,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>45084</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="508" spans="1:2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>45083</v>
       </c>
@@ -4490,7 +4495,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>45082</v>
       </c>
@@ -4498,7 +4503,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>45079</v>
       </c>
@@ -4506,7 +4511,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="511" spans="1:2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>45078</v>
       </c>
@@ -4514,7 +4519,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="512" spans="1:2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>45077</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>45076</v>
       </c>
@@ -4530,7 +4535,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>45072</v>
       </c>
@@ -4538,7 +4543,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="515" spans="1:2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>45071</v>
       </c>
@@ -4546,7 +4551,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>45070</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="517" spans="1:2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>45069</v>
       </c>
@@ -4562,7 +4567,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="518" spans="1:2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>45068</v>
       </c>
@@ -4570,7 +4575,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="519" spans="1:2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>45065</v>
       </c>
@@ -4578,7 +4583,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="520" spans="1:2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>45064</v>
       </c>
@@ -4586,7 +4591,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="521" spans="1:2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>45063</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="522" spans="1:2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>45062</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>45061</v>
       </c>
@@ -4610,7 +4615,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="524" spans="1:2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>45058</v>
       </c>
@@ -4618,7 +4623,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>45057</v>
       </c>
@@ -4626,7 +4631,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="526" spans="1:2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>45056</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>45055</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>45051</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>45050</v>
       </c>
@@ -4658,7 +4663,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>45049</v>
       </c>
@@ -4666,7 +4671,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>45048</v>
       </c>
@@ -4674,7 +4679,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>45044</v>
       </c>
@@ -4682,7 +4687,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>45043</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>45042</v>
       </c>
@@ -4698,7 +4703,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>45041</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>45040</v>
       </c>
@@ -4714,7 +4719,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="537" spans="1:2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>45037</v>
       </c>
@@ -4722,7 +4727,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="538" spans="1:2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>45036</v>
       </c>
@@ -4730,7 +4735,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>45035</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>45034</v>
       </c>
@@ -4746,7 +4751,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="541" spans="1:2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>45033</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>45030</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="543" spans="1:2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>45029</v>
       </c>
@@ -4770,7 +4775,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>45028</v>
       </c>
@@ -4778,7 +4783,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>45027</v>
       </c>
@@ -4786,7 +4791,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>45022</v>
       </c>
@@ -4794,7 +4799,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>45021</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>45020</v>
       </c>
@@ -4810,7 +4815,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>45019</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>45016</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>45015</v>
       </c>
@@ -4834,7 +4839,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="552" spans="1:2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>45014</v>
       </c>
@@ -4842,7 +4847,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>45013</v>
       </c>
@@ -4850,7 +4855,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="554" spans="1:2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>45012</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="555" spans="1:2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>45009</v>
       </c>
@@ -4866,7 +4871,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="556" spans="1:2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>45008</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="557" spans="1:2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>45007</v>
       </c>
@@ -4882,7 +4887,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="558" spans="1:2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>45006</v>
       </c>
@@ -4890,7 +4895,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="559" spans="1:2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>45005</v>
       </c>
@@ -4898,7 +4903,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="560" spans="1:2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>45002</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="561" spans="1:2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>45001</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="562" spans="1:2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>45000</v>
       </c>
@@ -4922,7 +4927,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="563" spans="1:2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>44999</v>
       </c>
@@ -4930,7 +4935,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="564" spans="1:2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>44998</v>
       </c>
@@ -4938,7 +4943,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="565" spans="1:2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>44995</v>
       </c>
@@ -4946,7 +4951,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>44994</v>
       </c>
@@ -4954,7 +4959,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>44993</v>
       </c>
@@ -4962,7 +4967,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="568" spans="1:2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>44992</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="569" spans="1:2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>44991</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="570" spans="1:2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>44988</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>44987</v>
       </c>
@@ -4994,7 +4999,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="572" spans="1:2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>44986</v>
       </c>
@@ -5002,7 +5007,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="573" spans="1:2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>44985</v>
       </c>
@@ -5010,7 +5015,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>44984</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="575" spans="1:2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>44981</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>44980</v>
       </c>
@@ -5034,7 +5039,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="577" spans="1:2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>44979</v>
       </c>
@@ -5042,7 +5047,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="578" spans="1:2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>44978</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="579" spans="1:2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>44977</v>
       </c>
@@ -5058,7 +5063,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="580" spans="1:2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>44974</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>44973</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="582" spans="1:2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>44972</v>
       </c>
@@ -5082,7 +5087,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>44971</v>
       </c>
@@ -5090,7 +5095,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="584" spans="1:2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>44970</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="585" spans="1:2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>44967</v>
       </c>
@@ -5106,7 +5111,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="586" spans="1:2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>44966</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="587" spans="1:2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>44965</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="588" spans="1:2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>44964</v>
       </c>
@@ -5130,7 +5135,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>44963</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>44960</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="591" spans="1:2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>44959</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>44958</v>
       </c>
@@ -5162,7 +5167,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="593" spans="1:2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>44957</v>
       </c>
@@ -5170,7 +5175,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>44956</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>44953</v>
       </c>
@@ -5186,7 +5191,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>44952</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="597" spans="1:2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>44951</v>
       </c>
@@ -5202,7 +5207,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>44950</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="599" spans="1:2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>44949</v>
       </c>
@@ -5218,7 +5223,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="600" spans="1:2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>44946</v>
       </c>
@@ -5226,7 +5231,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="601" spans="1:2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>44945</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="602" spans="1:2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44944</v>
       </c>
@@ -5242,7 +5247,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="603" spans="1:2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44943</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="604" spans="1:2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44942</v>
       </c>
@@ -5258,7 +5263,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44939</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="606" spans="1:2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44938</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="607" spans="1:2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44937</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="608" spans="1:2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44936</v>
       </c>
@@ -5290,7 +5295,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="609" spans="1:2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44935</v>
       </c>
@@ -5298,7 +5303,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="610" spans="1:2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44932</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="611" spans="1:2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44931</v>
       </c>
@@ -5314,7 +5319,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="612" spans="1:2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44930</v>
       </c>
@@ -5322,7 +5327,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="613" spans="1:2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44929</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="614" spans="1:2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44925</v>
       </c>
@@ -5338,7 +5343,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="615" spans="1:2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44924</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="616" spans="1:2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44923</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="617" spans="1:2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44918</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="618" spans="1:2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44917</v>
       </c>
@@ -5370,7 +5375,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="619" spans="1:2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44916</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="620" spans="1:2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44915</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="621" spans="1:2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44914</v>
       </c>
@@ -5394,7 +5399,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="622" spans="1:2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44911</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="623" spans="1:2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44910</v>
       </c>
@@ -5410,7 +5415,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="624" spans="1:2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44909</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="625" spans="1:2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44908</v>
       </c>
@@ -5426,7 +5431,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="626" spans="1:2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44907</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="627" spans="1:2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44904</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="628" spans="1:2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44903</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="629" spans="1:2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44902</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="630" spans="1:2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44901</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="631" spans="1:2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44900</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="632" spans="1:2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44897</v>
       </c>
@@ -5482,7 +5487,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="633" spans="1:2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44896</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44895</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="635" spans="1:2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44894</v>
       </c>
@@ -5506,7 +5511,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="636" spans="1:2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44893</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="637" spans="1:2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44890</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="638" spans="1:2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44889</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="639" spans="1:2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44888</v>
       </c>
@@ -5538,7 +5543,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="640" spans="1:2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44887</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="641" spans="1:2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>44886</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="642" spans="1:2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>44883</v>
       </c>
@@ -5562,7 +5567,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="643" spans="1:2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>44882</v>
       </c>
@@ -5570,7 +5575,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="644" spans="1:2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>44881</v>
       </c>
@@ -5578,7 +5583,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="645" spans="1:2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>44880</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="646" spans="1:2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>44879</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>44876</v>
       </c>
@@ -5602,7 +5607,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="648" spans="1:2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>44875</v>
       </c>
@@ -5610,7 +5615,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="649" spans="1:2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>44874</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="650" spans="1:2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>44873</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="651" spans="1:2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>44872</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="652" spans="1:2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>44869</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="653" spans="1:2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>44868</v>
       </c>
@@ -5650,7 +5655,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="654" spans="1:2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>44867</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="655" spans="1:2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>44866</v>
       </c>
@@ -5666,7 +5671,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="656" spans="1:2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>44865</v>
       </c>
@@ -5674,7 +5679,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="657" spans="1:2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>44862</v>
       </c>
@@ -5682,7 +5687,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="658" spans="1:2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>44861</v>
       </c>
@@ -5690,7 +5695,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="659" spans="1:2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>44860</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="660" spans="1:2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44859</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="661" spans="1:2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>44858</v>
       </c>
@@ -5714,7 +5719,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="662" spans="1:2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>44855</v>
       </c>
@@ -5722,7 +5727,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="663" spans="1:2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>44854</v>
       </c>
@@ -5730,7 +5735,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="664" spans="1:2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>44853</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="665" spans="1:2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>44852</v>
       </c>
@@ -5746,7 +5751,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="666" spans="1:2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>44851</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="667" spans="1:2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>44848</v>
       </c>
@@ -5762,7 +5767,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="668" spans="1:2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>44847</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="669" spans="1:2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>44846</v>
       </c>
@@ -5778,7 +5783,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="670" spans="1:2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>44845</v>
       </c>
@@ -5786,7 +5791,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="671" spans="1:2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>44844</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="672" spans="1:2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>44841</v>
       </c>
@@ -5802,7 +5807,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="673" spans="1:2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>44840</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="674" spans="1:2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>44839</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="675" spans="1:2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>44838</v>
       </c>
@@ -5826,7 +5831,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="676" spans="1:2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>44837</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="677" spans="1:2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>44834</v>
       </c>
@@ -5842,7 +5847,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="678" spans="1:2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>44833</v>
       </c>
@@ -5850,7 +5855,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="679" spans="1:2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>44832</v>
       </c>
@@ -5858,7 +5863,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="680" spans="1:2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>44831</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="681" spans="1:2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>44830</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="682" spans="1:2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>44827</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="683" spans="1:2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>44826</v>
       </c>
@@ -5890,7 +5895,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="684" spans="1:2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>44825</v>
       </c>
@@ -5898,7 +5903,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="685" spans="1:2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>44824</v>
       </c>
@@ -5906,7 +5911,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="686" spans="1:2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>44820</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="687" spans="1:2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>44819</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="688" spans="1:2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>44818</v>
       </c>
@@ -5930,7 +5935,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="689" spans="1:2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>44817</v>
       </c>
@@ -5938,7 +5943,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="690" spans="1:2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>44816</v>
       </c>
@@ -5946,7 +5951,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="691" spans="1:2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>44813</v>
       </c>
@@ -5954,7 +5959,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="692" spans="1:2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>44812</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="693" spans="1:2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>44811</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="694" spans="1:2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>44810</v>
       </c>
@@ -5978,7 +5983,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="695" spans="1:2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>44809</v>
       </c>
@@ -5986,7 +5991,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="696" spans="1:2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>44806</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="697" spans="1:2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>44805</v>
       </c>
@@ -6002,7 +6007,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="698" spans="1:2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>44804</v>
       </c>
@@ -6010,7 +6015,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="699" spans="1:2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>44803</v>
       </c>
@@ -6018,7 +6023,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="700" spans="1:2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>44799</v>
       </c>
@@ -6026,7 +6031,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>44798</v>
       </c>
@@ -6034,7 +6039,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="702" spans="1:2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>44797</v>
       </c>
@@ -6042,7 +6047,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="703" spans="1:2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>44796</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="704" spans="1:2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>44795</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="705" spans="1:2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>44792</v>
       </c>
@@ -6066,7 +6071,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="706" spans="1:2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>44791</v>
       </c>
@@ -6074,7 +6079,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="707" spans="1:2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>44790</v>
       </c>
@@ -6082,7 +6087,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="708" spans="1:2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>44789</v>
       </c>
@@ -6090,7 +6095,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="709" spans="1:2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>44788</v>
       </c>
@@ -6098,7 +6103,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="710" spans="1:2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>44785</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="711" spans="1:2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>44784</v>
       </c>
@@ -6114,7 +6119,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="712" spans="1:2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>44783</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="713" spans="1:2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>44782</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="714" spans="1:2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>44781</v>
       </c>
@@ -6138,7 +6143,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="715" spans="1:2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>44778</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="716" spans="1:2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>44777</v>
       </c>
@@ -6154,7 +6159,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="717" spans="1:2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>44776</v>
       </c>
@@ -6162,7 +6167,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="718" spans="1:2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>44775</v>
       </c>
@@ -6170,7 +6175,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="719" spans="1:2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>44774</v>
       </c>
@@ -6178,7 +6183,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="720" spans="1:2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>44771</v>
       </c>
@@ -6186,7 +6191,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="721" spans="1:2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>44770</v>
       </c>
@@ -6194,7 +6199,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="722" spans="1:2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>44769</v>
       </c>
@@ -6202,7 +6207,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="723" spans="1:2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>44768</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="724" spans="1:2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>44767</v>
       </c>
@@ -6218,7 +6223,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="725" spans="1:2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>44764</v>
       </c>
@@ -6226,7 +6231,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="726" spans="1:2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>44763</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="727" spans="1:2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>44762</v>
       </c>
@@ -6242,7 +6247,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="728" spans="1:2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>44761</v>
       </c>
@@ -6250,7 +6255,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="729" spans="1:2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>44760</v>
       </c>
@@ -6258,7 +6263,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="730" spans="1:2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>44757</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="731" spans="1:2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>44756</v>
       </c>
@@ -6274,7 +6279,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="732" spans="1:2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>44755</v>
       </c>
@@ -6282,7 +6287,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="733" spans="1:2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>44754</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="734" spans="1:2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>44753</v>
       </c>
@@ -6298,7 +6303,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="735" spans="1:2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>44750</v>
       </c>
@@ -6306,7 +6311,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="736" spans="1:2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>44749</v>
       </c>
@@ -6314,7 +6319,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="737" spans="1:2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>44748</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="738" spans="1:2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>44747</v>
       </c>
@@ -6330,7 +6335,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="739" spans="1:2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>44746</v>
       </c>
@@ -6338,7 +6343,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="740" spans="1:2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>44743</v>
       </c>
@@ -6346,7 +6351,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="741" spans="1:2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>44742</v>
       </c>
@@ -6354,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>44741</v>
       </c>
@@ -6362,7 +6367,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="743" spans="1:2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>44740</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="744" spans="1:2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>44739</v>
       </c>
@@ -6378,7 +6383,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="745" spans="1:2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>44736</v>
       </c>
@@ -6386,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>44735</v>
       </c>
@@ -6394,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>44734</v>
       </c>
@@ -6402,7 +6407,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="748" spans="1:2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>44733</v>
       </c>
@@ -6410,7 +6415,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="749" spans="1:2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>44732</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="750" spans="1:2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>44729</v>
       </c>
@@ -6426,7 +6431,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="751" spans="1:2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>44728</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="752" spans="1:2">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>44727</v>
       </c>
@@ -6442,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:2">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>44726</v>
       </c>
@@ -6450,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:2">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>44725</v>
       </c>
@@ -6458,7 +6463,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="755" spans="1:2">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>44722</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="756" spans="1:2">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>44721</v>
       </c>
@@ -6474,7 +6479,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="757" spans="1:2">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>44720</v>
       </c>
@@ -6482,7 +6487,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="758" spans="1:2">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>44719</v>
       </c>
@@ -6490,7 +6495,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="759" spans="1:2">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>44718</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="760" spans="1:2">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>44713</v>
       </c>
@@ -6506,7 +6511,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="761" spans="1:2">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>44712</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="762" spans="1:2">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>44711</v>
       </c>
@@ -6522,7 +6527,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="763" spans="1:2">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>44708</v>
       </c>
@@ -6530,7 +6535,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="764" spans="1:2">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>44707</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="765" spans="1:2">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>44706</v>
       </c>
@@ -6546,7 +6551,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="766" spans="1:2">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>44705</v>
       </c>
@@ -6554,7 +6559,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="767" spans="1:2">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>44704</v>
       </c>
@@ -6562,7 +6567,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="768" spans="1:2">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>44701</v>
       </c>
@@ -6570,7 +6575,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="769" spans="1:2">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>44700</v>
       </c>
@@ -6578,7 +6583,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="770" spans="1:2">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>44699</v>
       </c>
@@ -6586,7 +6591,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="771" spans="1:2">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>44698</v>
       </c>
@@ -6594,7 +6599,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="772" spans="1:2">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>44697</v>
       </c>
@@ -6602,7 +6607,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="773" spans="1:2">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>44694</v>
       </c>
@@ -6610,7 +6615,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="774" spans="1:2">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>44693</v>
       </c>
@@ -6618,7 +6623,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="775" spans="1:2">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>44692</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="776" spans="1:2">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>44691</v>
       </c>
@@ -6634,7 +6639,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="777" spans="1:2">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>44690</v>
       </c>
@@ -6642,7 +6647,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="778" spans="1:2">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>44687</v>
       </c>
@@ -6650,7 +6655,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="779" spans="1:2">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>44686</v>
       </c>
@@ -6658,7 +6663,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="780" spans="1:2">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>44685</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="781" spans="1:2">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>44684</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="782" spans="1:2">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>44680</v>
       </c>
@@ -6682,7 +6687,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="783" spans="1:2">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>44679</v>
       </c>
@@ -6690,7 +6695,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="784" spans="1:2">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>44678</v>
       </c>
@@ -6698,7 +6703,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="785" spans="1:2">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>44677</v>
       </c>
@@ -6706,7 +6711,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="786" spans="1:2">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>44676</v>
       </c>
@@ -6714,7 +6719,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="787" spans="1:2">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>44673</v>
       </c>
@@ -6722,7 +6727,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="788" spans="1:2">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>44672</v>
       </c>
@@ -6730,7 +6735,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="789" spans="1:2">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>44671</v>
       </c>
@@ -6738,7 +6743,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="790" spans="1:2">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>44670</v>
       </c>
@@ -6746,7 +6751,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="791" spans="1:2">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>44665</v>
       </c>
@@ -6754,7 +6759,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="792" spans="1:2">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>44664</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="793" spans="1:2">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>44663</v>
       </c>
@@ -6770,7 +6775,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:2">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>44662</v>
       </c>
@@ -6778,7 +6783,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:2">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>44659</v>
       </c>
@@ -6786,7 +6791,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:2">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>44658</v>
       </c>
@@ -6794,7 +6799,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="797" spans="1:2">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>44657</v>
       </c>
@@ -6802,7 +6807,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="798" spans="1:2">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>44656</v>
       </c>
@@ -6810,7 +6815,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="799" spans="1:2">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>44655</v>
       </c>
@@ -6818,7 +6823,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="800" spans="1:2">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>44652</v>
       </c>
@@ -6826,7 +6831,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="801" spans="1:2">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>44651</v>
       </c>
@@ -6834,7 +6839,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:2">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>44650</v>
       </c>
@@ -6842,7 +6847,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="803" spans="1:2">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>44649</v>
       </c>
@@ -6850,7 +6855,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="804" spans="1:2">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>44648</v>
       </c>
@@ -6858,7 +6863,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="805" spans="1:2">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>44645</v>
       </c>
@@ -6866,7 +6871,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="806" spans="1:2">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>44644</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="807" spans="1:2">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>44643</v>
       </c>
@@ -6882,7 +6887,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="808" spans="1:2">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>44642</v>
       </c>
@@ -6890,7 +6895,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="809" spans="1:2">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>44641</v>
       </c>
@@ -6898,7 +6903,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="810" spans="1:2">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>44638</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="811" spans="1:2">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>44637</v>
       </c>
@@ -6914,7 +6919,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="812" spans="1:2">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>44636</v>
       </c>
@@ -6922,7 +6927,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="813" spans="1:2">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>44635</v>
       </c>
@@ -6930,7 +6935,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="814" spans="1:2">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>44634</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="815" spans="1:2">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>44631</v>
       </c>
@@ -6946,7 +6951,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="816" spans="1:2">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>44630</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="817" spans="1:2">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>44629</v>
       </c>
@@ -6962,7 +6967,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="818" spans="1:2">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>44628</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="819" spans="1:2">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>44627</v>
       </c>
@@ -6978,7 +6983,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="820" spans="1:2">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>44624</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="821" spans="1:2">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>44623</v>
       </c>
@@ -6994,7 +6999,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="822" spans="1:2">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>44622</v>
       </c>
@@ -7002,7 +7007,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="823" spans="1:2">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>44621</v>
       </c>
@@ -7010,7 +7015,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="824" spans="1:2">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>44620</v>
       </c>
@@ -7018,7 +7023,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="825" spans="1:2">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>44617</v>
       </c>
@@ -7026,7 +7031,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="826" spans="1:2">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>44616</v>
       </c>
@@ -7034,7 +7039,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="827" spans="1:2">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>44615</v>
       </c>
@@ -7042,7 +7047,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="828" spans="1:2">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>44614</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="829" spans="1:2">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>44613</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="830" spans="1:2">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>44610</v>
       </c>
@@ -7066,7 +7071,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="831" spans="1:2">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>44609</v>
       </c>
@@ -7074,7 +7079,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="832" spans="1:2">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>44608</v>
       </c>
@@ -7082,7 +7087,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="833" spans="1:2">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>44607</v>
       </c>
@@ -7090,7 +7095,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="834" spans="1:2">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>44606</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="835" spans="1:2">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>44603</v>
       </c>
@@ -7106,7 +7111,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="836" spans="1:2">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>44602</v>
       </c>
@@ -7114,7 +7119,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="837" spans="1:2">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>44601</v>
       </c>
@@ -7122,7 +7127,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="838" spans="1:2">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>44600</v>
       </c>
@@ -7130,7 +7135,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="839" spans="1:2">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>44599</v>
       </c>
@@ -7138,7 +7143,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="840" spans="1:2">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>44596</v>
       </c>
@@ -7146,7 +7151,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="841" spans="1:2">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>44595</v>
       </c>
@@ -7154,7 +7159,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="842" spans="1:2">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>44594</v>
       </c>
@@ -7162,7 +7167,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="843" spans="1:2">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>44593</v>
       </c>
@@ -7170,7 +7175,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="844" spans="1:2">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>44592</v>
       </c>
@@ -7178,7 +7183,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="845" spans="1:2">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>44589</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="846" spans="1:2">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>44588</v>
       </c>
@@ -7194,7 +7199,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="847" spans="1:2">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>44587</v>
       </c>
@@ -7202,7 +7207,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="848" spans="1:2">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>44586</v>
       </c>
@@ -7210,7 +7215,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="849" spans="1:2">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>44585</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="850" spans="1:2">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>44582</v>
       </c>
@@ -7226,7 +7231,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="851" spans="1:2">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>44581</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="852" spans="1:2">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>44580</v>
       </c>
@@ -7242,7 +7247,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="853" spans="1:2">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>44579</v>
       </c>
@@ -7250,7 +7255,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="854" spans="1:2">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>44578</v>
       </c>
@@ -7258,7 +7263,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="855" spans="1:2">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>44575</v>
       </c>
@@ -7266,7 +7271,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="856" spans="1:2">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>44574</v>
       </c>
@@ -7274,7 +7279,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="857" spans="1:2">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>44573</v>
       </c>
@@ -7282,7 +7287,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="858" spans="1:2">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>44572</v>
       </c>
@@ -7290,7 +7295,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="859" spans="1:2">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>44571</v>
       </c>
@@ -7298,7 +7303,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="860" spans="1:2">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>44568</v>
       </c>
@@ -7306,7 +7311,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="861" spans="1:2">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>44567</v>
       </c>
@@ -7314,7 +7319,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="862" spans="1:2">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>44566</v>
       </c>
@@ -7322,7 +7327,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="863" spans="1:2">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>44565</v>
       </c>
@@ -7330,7 +7335,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="864" spans="1:2">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>44561</v>
       </c>
@@ -7338,7 +7343,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="865" spans="1:2">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>44560</v>
       </c>
@@ -7346,7 +7351,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="866" spans="1:2">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>44559</v>
       </c>
@@ -7354,7 +7359,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="867" spans="1:2">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>44554</v>
       </c>
@@ -7362,7 +7367,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="868" spans="1:2">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>44553</v>
       </c>
@@ -7370,7 +7375,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="869" spans="1:2">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>44552</v>
       </c>
@@ -7378,7 +7383,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="870" spans="1:2">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>44551</v>
       </c>
@@ -7386,7 +7391,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="871" spans="1:2">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>44550</v>
       </c>
@@ -7394,7 +7399,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="872" spans="1:2">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>44547</v>
       </c>
@@ -7402,7 +7407,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="873" spans="1:2">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>44546</v>
       </c>
@@ -7410,7 +7415,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="874" spans="1:2">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>44545</v>
       </c>
@@ -7418,7 +7423,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="875" spans="1:2">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>44544</v>
       </c>
@@ -7426,7 +7431,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="876" spans="1:2">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>44543</v>
       </c>
@@ -7434,7 +7439,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="877" spans="1:2">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>44540</v>
       </c>
@@ -7442,7 +7447,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="878" spans="1:2">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>44539</v>
       </c>
@@ -7450,7 +7455,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="879" spans="1:2">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>44538</v>
       </c>
@@ -7458,7 +7463,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="880" spans="1:2">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>44537</v>
       </c>
@@ -7466,7 +7471,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="881" spans="1:2">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>44536</v>
       </c>
@@ -7474,7 +7479,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="882" spans="1:2">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>44533</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="883" spans="1:2">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>44532</v>
       </c>
@@ -7490,7 +7495,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="884" spans="1:2">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>44531</v>
       </c>
@@ -7498,7 +7503,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="885" spans="1:2">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>44530</v>
       </c>
@@ -7506,7 +7511,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="886" spans="1:2">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>44529</v>
       </c>
@@ -7514,7 +7519,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="887" spans="1:2">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>44526</v>
       </c>
@@ -7522,7 +7527,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="888" spans="1:2">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>44525</v>
       </c>
@@ -7530,7 +7535,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="889" spans="1:2">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>44524</v>
       </c>
@@ -7538,7 +7543,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="890" spans="1:2">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>44523</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="891" spans="1:2">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>44522</v>
       </c>
@@ -7554,7 +7559,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="892" spans="1:2">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>44519</v>
       </c>
@@ -7562,7 +7567,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="893" spans="1:2">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>44518</v>
       </c>
@@ -7570,7 +7575,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="894" spans="1:2">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>44517</v>
       </c>
@@ -7578,7 +7583,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="895" spans="1:2">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>44516</v>
       </c>
@@ -7586,7 +7591,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="896" spans="1:2">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>44515</v>
       </c>
@@ -7594,7 +7599,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="897" spans="1:2">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>44512</v>
       </c>
@@ -7602,7 +7607,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="898" spans="1:2">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>44511</v>
       </c>
@@ -7610,7 +7615,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="899" spans="1:2">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>44510</v>
       </c>
@@ -7618,7 +7623,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="900" spans="1:2">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>44509</v>
       </c>
@@ -7626,7 +7631,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="901" spans="1:2">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>44508</v>
       </c>
@@ -7634,7 +7639,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="902" spans="1:2">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>44505</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="903" spans="1:2">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>44504</v>
       </c>
@@ -7650,7 +7655,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="904" spans="1:2">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>44503</v>
       </c>
@@ -7658,7 +7663,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="905" spans="1:2">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>44502</v>
       </c>
@@ -7666,7 +7671,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="906" spans="1:2">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>44501</v>
       </c>
@@ -7674,7 +7679,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="907" spans="1:2">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>44498</v>
       </c>
@@ -7682,7 +7687,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="908" spans="1:2">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>44497</v>
       </c>
@@ -7690,7 +7695,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="909" spans="1:2">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>44496</v>
       </c>
@@ -7698,7 +7703,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="910" spans="1:2">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>44495</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="911" spans="1:2">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>44494</v>
       </c>
@@ -7714,7 +7719,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="912" spans="1:2">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>44491</v>
       </c>
@@ -7722,7 +7727,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="913" spans="1:2">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>44490</v>
       </c>
@@ -7730,7 +7735,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="914" spans="1:2">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>44489</v>
       </c>
@@ -7738,7 +7743,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="915" spans="1:2">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>44488</v>
       </c>
@@ -7746,7 +7751,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="916" spans="1:2">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>44487</v>
       </c>
@@ -7754,7 +7759,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="917" spans="1:2">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>44484</v>
       </c>
@@ -7762,7 +7767,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="918" spans="1:2">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>44483</v>
       </c>
@@ -7770,7 +7775,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="919" spans="1:2">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>44482</v>
       </c>
@@ -7778,7 +7783,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="920" spans="1:2">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>44481</v>
       </c>
@@ -7786,7 +7791,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="921" spans="1:2">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>44480</v>
       </c>
@@ -7794,7 +7799,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="922" spans="1:2">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>44477</v>
       </c>
@@ -7802,7 +7807,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="923" spans="1:2">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>44476</v>
       </c>
@@ -7810,7 +7815,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="924" spans="1:2">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>44475</v>
       </c>
@@ -7818,7 +7823,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="925" spans="1:2">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>44474</v>
       </c>
@@ -7826,7 +7831,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="926" spans="1:2">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>44473</v>
       </c>
@@ -7834,7 +7839,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="927" spans="1:2">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>44470</v>
       </c>
@@ -7842,7 +7847,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="928" spans="1:2">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>44469</v>
       </c>
@@ -7850,7 +7855,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="929" spans="1:2">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>44468</v>
       </c>
@@ -7858,7 +7863,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="930" spans="1:2">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>44467</v>
       </c>
@@ -7866,7 +7871,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="931" spans="1:2">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>44466</v>
       </c>
@@ -7874,7 +7879,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="932" spans="1:2">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>44463</v>
       </c>
@@ -7882,7 +7887,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="933" spans="1:2">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>44462</v>
       </c>
@@ -7890,7 +7895,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="934" spans="1:2">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>44461</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="935" spans="1:2">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>44460</v>
       </c>
@@ -7906,7 +7911,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="936" spans="1:2">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>44459</v>
       </c>
@@ -7914,7 +7919,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="937" spans="1:2">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>44456</v>
       </c>
@@ -7922,7 +7927,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="938" spans="1:2">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>44455</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="939" spans="1:2">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>44454</v>
       </c>
@@ -7938,7 +7943,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="940" spans="1:2">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>44453</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="941" spans="1:2">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>44452</v>
       </c>
@@ -7954,7 +7959,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="942" spans="1:2">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>44449</v>
       </c>
@@ -7962,7 +7967,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="943" spans="1:2">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>44448</v>
       </c>
@@ -7970,7 +7975,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="944" spans="1:2">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>44447</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="945" spans="1:2">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>44446</v>
       </c>
@@ -7986,7 +7991,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="946" spans="1:2">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>44445</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="947" spans="1:2">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>44442</v>
       </c>
@@ -8002,7 +8007,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="948" spans="1:2">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>44441</v>
       </c>
@@ -8010,7 +8015,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="949" spans="1:2">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>44440</v>
       </c>
@@ -8018,7 +8023,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="950" spans="1:2">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>44439</v>
       </c>
@@ -8026,7 +8031,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="951" spans="1:2">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>44435</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="952" spans="1:2">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>44434</v>
       </c>
@@ -8042,7 +8047,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="953" spans="1:2">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>44433</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="954" spans="1:2">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>44432</v>
       </c>
@@ -8058,7 +8063,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="955" spans="1:2">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>44431</v>
       </c>
@@ -8066,7 +8071,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="956" spans="1:2">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>44428</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="957" spans="1:2">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>44427</v>
       </c>
@@ -8082,7 +8087,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="958" spans="1:2">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>44426</v>
       </c>
@@ -8090,7 +8095,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="959" spans="1:2">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>44425</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="960" spans="1:2">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>44424</v>
       </c>
@@ -8106,7 +8111,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="961" spans="1:2">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>44421</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="962" spans="1:2">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>44420</v>
       </c>
@@ -8122,7 +8127,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="963" spans="1:2">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>44419</v>
       </c>
@@ -8130,7 +8135,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="964" spans="1:2">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>44418</v>
       </c>
@@ -8138,7 +8143,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="965" spans="1:2">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>44417</v>
       </c>
@@ -8146,7 +8151,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="966" spans="1:2">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>44414</v>
       </c>
@@ -8154,7 +8159,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="967" spans="1:2">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>44413</v>
       </c>
@@ -8162,7 +8167,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="968" spans="1:2">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>44412</v>
       </c>
@@ -8170,7 +8175,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="969" spans="1:2">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>44411</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="970" spans="1:2">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>44410</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="971" spans="1:2">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>44407</v>
       </c>
@@ -8194,7 +8199,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="972" spans="1:2">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>44406</v>
       </c>
@@ -8202,7 +8207,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="973" spans="1:2">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>44405</v>
       </c>
@@ -8210,7 +8215,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="974" spans="1:2">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>44404</v>
       </c>
@@ -8218,7 +8223,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="975" spans="1:2">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>44403</v>
       </c>
@@ -8226,7 +8231,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="976" spans="1:2">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>44400</v>
       </c>
@@ -8234,7 +8239,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="977" spans="1:2">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>44399</v>
       </c>
@@ -8242,7 +8247,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="978" spans="1:2">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>44398</v>
       </c>
@@ -8250,7 +8255,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="979" spans="1:2">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>44397</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="980" spans="1:2">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>44396</v>
       </c>
@@ -8266,7 +8271,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="981" spans="1:2">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>44393</v>
       </c>
@@ -8274,7 +8279,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="982" spans="1:2">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>44392</v>
       </c>
@@ -8282,7 +8287,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="983" spans="1:2">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>44391</v>
       </c>
@@ -8290,7 +8295,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="984" spans="1:2">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>44390</v>
       </c>
@@ -8298,7 +8303,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="985" spans="1:2">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>44389</v>
       </c>
@@ -8306,7 +8311,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="986" spans="1:2">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>44386</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="987" spans="1:2">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>44385</v>
       </c>
@@ -8322,7 +8327,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="988" spans="1:2">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>44384</v>
       </c>
@@ -8330,7 +8335,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="989" spans="1:2">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>44383</v>
       </c>
@@ -8338,7 +8343,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="990" spans="1:2">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>44382</v>
       </c>
@@ -8346,7 +8351,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="991" spans="1:2">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>44379</v>
       </c>
@@ -8354,7 +8359,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="992" spans="1:2">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>44378</v>
       </c>
@@ -8362,7 +8367,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="993" spans="1:2">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>44377</v>
       </c>
@@ -8370,7 +8375,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="994" spans="1:2">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>44376</v>
       </c>
@@ -8378,7 +8383,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="995" spans="1:2">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>44375</v>
       </c>
@@ -8386,7 +8391,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="996" spans="1:2">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>44372</v>
       </c>
@@ -8394,7 +8399,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="997" spans="1:2">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>44371</v>
       </c>
@@ -8402,7 +8407,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="998" spans="1:2">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>44370</v>
       </c>
@@ -8410,7 +8415,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="999" spans="1:2">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>44369</v>
       </c>
@@ -8418,7 +8423,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="1000" spans="1:2">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>44368</v>
       </c>
@@ -8426,7 +8431,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1001" spans="1:2">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>44365</v>
       </c>
@@ -8434,7 +8439,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="1002" spans="1:2">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>44364</v>
       </c>
@@ -8442,7 +8447,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="1003" spans="1:2">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>44363</v>
       </c>
@@ -8450,7 +8455,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1004" spans="1:2">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>44362</v>
       </c>
@@ -8458,7 +8463,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="1005" spans="1:2">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>44361</v>
       </c>
@@ -8466,7 +8471,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1006" spans="1:2">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>44358</v>
       </c>
@@ -8474,7 +8479,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1007" spans="1:2">
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>44357</v>
       </c>
@@ -8482,7 +8487,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1008" spans="1:2">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1008" s="1">
         <v>44356</v>
       </c>
@@ -8490,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:2">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1009" s="1">
         <v>44355</v>
       </c>
@@ -8498,7 +8503,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1010" spans="1:2">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1010" s="1">
         <v>44354</v>
       </c>
@@ -8506,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:2">
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1011" s="1">
         <v>44351</v>
       </c>
@@ -8514,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:2">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1012" s="1">
         <v>44350</v>
       </c>
@@ -8522,7 +8527,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1013" spans="1:2">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1013" s="1">
         <v>44349</v>
       </c>
@@ -8530,7 +8535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:2">
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1014" s="1">
         <v>44348</v>
       </c>
@@ -8538,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:2">
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1015" s="1">
         <v>44344</v>
       </c>
@@ -8546,7 +8551,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1016" spans="1:2">
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1016" s="1">
         <v>44343</v>
       </c>
@@ -8554,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:2">
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1017" s="1">
         <v>44342</v>
       </c>
@@ -8562,7 +8567,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1018" spans="1:2">
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1018" s="1">
         <v>44341</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1019" spans="1:2">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1019" s="1">
         <v>44340</v>
       </c>
@@ -8578,7 +8583,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1020" spans="1:2">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1020" s="1">
         <v>44337</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="1021" spans="1:2">
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1021" s="1">
         <v>44336</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="1022" spans="1:2">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1022" s="1">
         <v>44335</v>
       </c>
@@ -8602,7 +8607,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="1023" spans="1:2">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1023" s="1">
         <v>44334</v>
       </c>
@@ -8610,7 +8615,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="1024" spans="1:2">
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1024" s="1">
         <v>44333</v>
       </c>
@@ -8618,7 +8623,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1025" spans="1:2">
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1025" s="1">
         <v>44330</v>
       </c>
@@ -8626,7 +8631,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="1026" spans="1:2">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1026" s="1">
         <v>44329</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="1027" spans="1:2">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1027" s="1">
         <v>44328</v>
       </c>
@@ -8642,7 +8647,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="1028" spans="1:2">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1028" s="1">
         <v>44327</v>
       </c>
@@ -8650,7 +8655,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="1029" spans="1:2">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1029" s="1">
         <v>44326</v>
       </c>
@@ -8658,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:2">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1030" s="1">
         <v>44323</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1031" spans="1:2">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1031" s="1">
         <v>44322</v>
       </c>
@@ -8674,7 +8679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:2">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1032" s="1">
         <v>44321</v>
       </c>
@@ -8682,7 +8687,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1033" spans="1:2">
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1033" s="1">
         <v>44320</v>
       </c>
@@ -8690,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:2">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1034" s="1">
         <v>44316</v>
       </c>
@@ -8698,7 +8703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:2">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1035" s="1">
         <v>44315</v>
       </c>
@@ -8706,7 +8711,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1036" spans="1:2">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1036" s="1">
         <v>44314</v>
       </c>
@@ -8714,7 +8719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:2">
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1037" s="1">
         <v>44313</v>
       </c>
@@ -8722,7 +8727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1038" spans="1:2">
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1038" s="1">
         <v>44312</v>
       </c>
@@ -8730,7 +8735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:2">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1039" s="1">
         <v>44309</v>
       </c>
@@ -8738,7 +8743,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1040" spans="1:2">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1040" s="1">
         <v>44308</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:2">
+    <row r="1041" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1041" s="1">
         <v>44307</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1042" spans="1:2">
+    <row r="1042" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1042" s="1">
         <v>44306</v>
       </c>
@@ -8762,7 +8767,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="1043" spans="1:2">
+    <row r="1043" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1043" s="1">
         <v>44305</v>
       </c>
@@ -8770,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1044" spans="1:2">
+    <row r="1044" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1044" s="1">
         <v>44302</v>
       </c>
@@ -8778,7 +8783,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1045" spans="1:2">
+    <row r="1045" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1045" s="1">
         <v>44301</v>
       </c>
